--- a/biology/Botanique/Pseudagrostistachys_africana/Pseudagrostistachys_africana.xlsx
+++ b/biology/Botanique/Pseudagrostistachys_africana/Pseudagrostistachys_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudagrostistachys africana est une espèce de plantes à fleurs de la famille des Euphorbiaceae. On la trouve au Cameroun, en Guinée équatoriale, au Ghana, au Nigeria et à São Tomé-et-Principe. Elle est menacée du fait de la disparition de son habitat.
 </t>
@@ -511,17 +523,19 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 avril 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 avril 2019) :
 sous-espèce Pseudagrostistachys africana subsp. africana
 sous-espèce Pseudagrostistachys africana subsp. humbertii
-Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2019) :
 sous-espèce Pseudagrostistachys africana subsp. africana
 sous-espèce Pseudagrostistachys africana subsp. humbertii (Lebrun) J.Léonard (1962)
-Selon The Plant List            (11 avril 2019)[1] :
+Selon The Plant List            (11 avril 2019) :
 sous-espèce Pseudagrostistachys africana subsp. humbertii (Lebrun) J.Léonard
-Selon Tropicos                                           (11 avril 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pseudagrostistachys africana subsp. africana
 sous-espèce Pseudagrostistachys africana subsp. humbertii (Lebrun) J. Léonard</t>
         </is>
@@ -551,7 +565,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Das Pflanzenreich IV. 147 VI(Heft 57): 97. 1912.</t>
         </is>
